--- a/struktura.xlsx
+++ b/struktura.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,12 +479,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SP000022419</t>
+          <t>SP000022427</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SP000022419</t>
+          <t>SP000022427</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -497,21 +497,31 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SP000022420</t>
+          <t>SP000022429</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SP000022419</t>
+          <t>SP000022427</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SP000022420</t>
+          <t>SP000022429</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>EN AW-6060 T66</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ne</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -520,17 +530,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SP000022424</t>
+          <t>SP000022175</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SP000022420</t>
+          <t>SP000022427</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SP000022424</t>
+          <t>SP000022175</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -538,12 +548,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>S355J2+N</t>
+          <t>EN AW-5754 H12/ H22</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -553,17 +563,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SP000022426</t>
+          <t>SP000022428</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SP000022420</t>
+          <t>SP000022427</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>SP000022426</t>
+          <t>SP000022428</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -571,12 +581,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>S355J2+N</t>
+          <t>EN AW-5754 H12/ H22</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -586,17 +596,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SP000022425</t>
+          <t>SP000012921</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SP000022420</t>
+          <t>SP000022427</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SP000022425</t>
+          <t>SP000012921</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -604,172 +614,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>S355J2+N</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>SP000022423</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>SP000022420</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>SP000022423</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>S355J2+N</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>SP000022422</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>SP000022420</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SP000022422</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>S355J2+N</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>SP000022421</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>SP000022420</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>SP000022421</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>S355J2+N</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>SP000022160</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>SP000022419</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>SP000022160</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>1.4301</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>SP000022161</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>SP000022419</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>SP000022161</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>S355J2+N</t>
+          <t>EN AW-6082 T6</t>
         </is>
       </c>
     </row>

--- a/struktura.xlsx
+++ b/struktura.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,12 +479,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SP000022427</t>
+          <t>SP000071951</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SP000022427</t>
+          <t>SP000071951</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -497,30 +497,30 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SP000022429</t>
+          <t>SP000071953</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SP000022427</t>
+          <t>SP000071951</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SP000022429</t>
+          <t>SP000071953</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>EN AW-6060 T66</t>
+          <t>S355J2+N EN 10051</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>ne</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -530,91 +530,30 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SP000022175</t>
+          <t>SP000071952</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SP000022427</t>
+          <t>SP000071951</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SP000022175</t>
+          <t>SP000071952</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>EN AW-5754 H12/ H22</t>
+          <t>S355J2+N EN 10051</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
           <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>SP000022428</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>SP000022427</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>SP000022428</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>EN AW-5754 H12/ H22</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>SP000012921</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>SP000022427</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SP000012921</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>EN AW-6082 T6</t>
         </is>
       </c>
     </row>
